--- a/data/TwitterActivityFrequency.xlsx
+++ b/data/TwitterActivityFrequency.xlsx
@@ -1,41 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Josue/Desktop/PokemonGo-GroupProjectRepo/data/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{501A9143-AC55-2E4A-A2C2-15D7972DF08E}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="16380" windowHeight="8200" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="false" name="_xlchart.v1.0" vbProcedure="false">Sheet1!$A$2:$A$12</definedName>
-    <definedName function="false" hidden="false" name="_xlchart.v1.1" vbProcedure="false">Sheet1!$B$1</definedName>
-    <definedName function="false" hidden="false" name="_xlchart.v1.10" vbProcedure="false">Sheet1!$A$2:$A$12</definedName>
-    <definedName function="false" hidden="false" name="_xlchart.v1.11" vbProcedure="false">Sheet1!$B$1</definedName>
-    <definedName function="false" hidden="false" name="_xlchart.v1.12" vbProcedure="false">Sheet1!$B$2:$B$12</definedName>
-    <definedName function="false" hidden="false" name="_xlchart.v1.13" vbProcedure="false">Sheet1!$A$1</definedName>
-    <definedName function="false" hidden="false" name="_xlchart.v1.14" vbProcedure="false">Sheet1!$A$2:$A$12</definedName>
-    <definedName function="false" hidden="false" name="_xlchart.v1.15" vbProcedure="false">Sheet1!$B$1</definedName>
-    <definedName function="false" hidden="false" name="_xlchart.v1.16" vbProcedure="false">Sheet1!$B$2:$B$12</definedName>
-    <definedName function="false" hidden="false" name="_xlchart.v1.17" vbProcedure="false">Sheet1!$A$2:$A$12</definedName>
-    <definedName function="false" hidden="false" name="_xlchart.v1.18" vbProcedure="false">Sheet1!$B$1</definedName>
-    <definedName function="false" hidden="false" name="_xlchart.v1.19" vbProcedure="false">Sheet1!$B$2:$B$12</definedName>
-    <definedName function="false" hidden="false" name="_xlchart.v1.2" vbProcedure="false">Sheet1!$B$2:$B$12</definedName>
-    <definedName function="false" hidden="false" name="_xlchart.v1.20" vbProcedure="false">Sheet1!$A$2:$A$12</definedName>
-    <definedName function="false" hidden="false" name="_xlchart.v1.21" vbProcedure="false">Sheet1!$B$1</definedName>
-    <definedName function="false" hidden="false" name="_xlchart.v1.22" vbProcedure="false">Sheet1!$B$2:$B$12</definedName>
-    <definedName function="false" hidden="false" name="_xlchart.v1.3" vbProcedure="false">Sheet1!$A$2:$A$12</definedName>
-    <definedName function="false" hidden="false" name="_xlchart.v1.4" vbProcedure="false">Sheet1!$B$1</definedName>
-    <definedName function="false" hidden="false" name="_xlchart.v1.5" vbProcedure="false">Sheet1!$B$2:$B$12</definedName>
-    <definedName function="false" hidden="false" name="_xlchart.v1.6" vbProcedure="false">Sheet1!$A$1</definedName>
-    <definedName function="false" hidden="false" name="_xlchart.v1.7" vbProcedure="false">Sheet1!$A$2:$A$12</definedName>
-    <definedName function="false" hidden="false" name="_xlchart.v1.8" vbProcedure="false">Sheet1!$B$1</definedName>
-    <definedName function="false" hidden="false" name="_xlchart.v1.9" vbProcedure="false">Sheet1!$B$2:$B$12</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$A$2:$A$12</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$B$1</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$B$2:$B$12</definedName>
   </definedNames>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -47,61 +32,23 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
-    <t xml:space="preserve">Hour</t>
+    <t>Hour</t>
   </si>
   <si>
-    <t xml:space="preserve">Frequency</t>
+    <t>Frequency</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="General"/>
-  </numFmts>
-  <fonts count="7">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="16"/>
-      <color rgb="FF44546A"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF44546A"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="9"/>
-      <color rgb="FF44546A"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -113,7 +60,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -121,45 +68,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -218,15 +137,33 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
+  <c:style val="2"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -235,20 +172,10 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="1" sz="1600" spc="-1" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="44546a"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri"/>
-              </a:defRPr>
+              <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:rPr b="1" sz="1600" spc="-1" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="44546a"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri"/>
-              </a:rPr>
+              <a:rPr lang="en-US"/>
               <a:t>Popular Tweet Times</a:t>
             </a:r>
           </a:p>
@@ -258,6 +185,7 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
+      <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
@@ -276,12 +204,9 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="4472c4"/>
-            </a:solidFill>
             <a:ln w="31680">
               <a:solidFill>
-                <a:srgbClr val="4472c4"/>
+                <a:srgbClr val="4472C4"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -290,19 +215,32 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:dLbls>
-            <c:numFmt formatCode="General" sourceLinked="1"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>Sheet1!$A$2:$A$12</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>14</c:v>
@@ -337,8 +275,8 @@
                 <c:pt idx="10">
                   <c:v>0</c:v>
                 </c:pt>
-              </c:strCache>
-            </c:strRef>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -383,7 +321,20 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5917-AE45-BD0D-E60C6EE4A0B5}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:hiLowLines>
           <c:spPr>
             <a:ln>
@@ -391,7 +342,7 @@
             </a:ln>
           </c:spPr>
         </c:hiLowLines>
-        <c:marker val="0"/>
+        <c:smooth val="0"/>
         <c:axId val="58123946"/>
         <c:axId val="89425849"/>
       </c:lineChart>
@@ -409,20 +360,10 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="1" sz="900" spc="-1" strike="noStrike">
-                    <a:solidFill>
-                      <a:srgbClr val="44546a"/>
-                    </a:solidFill>
-                    <a:latin typeface="Calibri"/>
-                  </a:defRPr>
+                  <a:defRPr/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr b="1" sz="900" spc="-1" strike="noStrike">
-                    <a:solidFill>
-                      <a:srgbClr val="44546a"/>
-                    </a:solidFill>
-                    <a:latin typeface="Calibri"/>
-                  </a:rPr>
+                  <a:rPr lang="en-US"/>
                   <a:t>Hour</a:t>
                 </a:r>
               </a:p>
@@ -437,30 +378,17 @@
         <c:spPr>
           <a:ln w="9360">
             <a:solidFill>
-              <a:srgbClr val="e0e5eb"/>
+              <a:srgbClr val="E0E5EB"/>
             </a:solidFill>
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="44546a"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
         <c:crossAx val="89425849"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
         <c:axId val="89425849"/>
@@ -473,7 +401,7 @@
           <c:spPr>
             <a:ln w="9360">
               <a:solidFill>
-                <a:srgbClr val="e0e5eb"/>
+                <a:srgbClr val="E0E5EB"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -486,20 +414,10 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="1" sz="900" spc="-1" strike="noStrike">
-                    <a:solidFill>
-                      <a:srgbClr val="44546a"/>
-                    </a:solidFill>
-                    <a:latin typeface="Calibri"/>
-                  </a:defRPr>
+                  <a:defRPr/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr b="1" sz="900" spc="-1" strike="noStrike">
-                    <a:solidFill>
-                      <a:srgbClr val="44546a"/>
-                    </a:solidFill>
-                    <a:latin typeface="Calibri"/>
-                  </a:rPr>
+                  <a:rPr lang="en-US"/>
                   <a:t>Tweet Count</a:t>
                 </a:r>
               </a:p>
@@ -516,20 +434,6 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="44546a"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
         <c:crossAx val="58123946"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
@@ -543,23 +447,42 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="1"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:srgbClr val="ffffff"/>
+      <a:srgbClr val="FFFFFF"/>
     </a:solidFill>
     <a:ln w="9360">
       <a:solidFill>
-        <a:srgbClr val="e0e5eb"/>
+        <a:srgbClr val="E0E5EB"/>
       </a:solidFill>
       <a:round/>
     </a:ln>
   </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr>
+          <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+          <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>4</xdr:col>
@@ -573,14 +496,20 @@
       <xdr:row>16</xdr:row>
       <xdr:rowOff>68400</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="0" name="Chart 1"/>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="4299480" y="335160"/>
-        <a:ext cx="6241680" cy="2984400"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -593,126 +522,413 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D15" activeCellId="0" sqref="D15"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="10.51"/>
+    <col min="1" max="1025" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="n">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2">
         <v>14</v>
       </c>
-      <c r="B2" s="0" t="n">
+      <c r="B2">
         <v>147</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="n">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3">
         <v>15</v>
       </c>
-      <c r="B3" s="0" t="n">
+      <c r="B3">
         <v>177</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="n">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4">
         <v>16</v>
       </c>
-      <c r="B4" s="0" t="n">
+      <c r="B4">
         <v>469</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="n">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5">
         <v>17</v>
       </c>
-      <c r="B5" s="0" t="n">
+      <c r="B5">
         <v>563</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="n">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6">
         <v>18</v>
       </c>
-      <c r="B6" s="0" t="n">
+      <c r="B6">
         <v>680</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="n">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7">
         <v>19</v>
       </c>
-      <c r="B7" s="0" t="n">
+      <c r="B7">
         <v>1124</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="n">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8">
         <v>20</v>
       </c>
-      <c r="B8" s="0" t="n">
+      <c r="B8">
         <v>951</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="n">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9">
         <v>21</v>
       </c>
-      <c r="B9" s="0" t="n">
+      <c r="B9">
         <v>515</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="n">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10">
         <v>22</v>
       </c>
-      <c r="B10" s="0" t="n">
+      <c r="B10">
         <v>445</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="n">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11">
         <v>23</v>
       </c>
-      <c r="B11" s="0" t="n">
+      <c r="B11">
         <v>222</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="n">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12">
         <v>0</v>
       </c>
-      <c r="B12" s="0" t="n">
+      <c r="B12">
         <v>335</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>